--- a/biology/Zoologie/Djoko_Tjahjono_Iskandar/Djoko_Tjahjono_Iskandar.xlsx
+++ b/biology/Zoologie/Djoko_Tjahjono_Iskandar/Djoko_Tjahjono_Iskandar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Djoko Tjahjono Iskandar, né le 23 août 1950, est un herpétologiste indonésien spécialiste de l'herpétofaune de l'Asie du Sud-Est.
 Il est diplômé de l'Université des sciences et techniques du Languedoc de Montpellier en France.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fejervarya iskandari Veith, Kosuch, Ohler, and Dubois, 2001</t>
         </is>
@@ -542,32 +556,34 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ansonia glandulosa Iskandar &amp; Mumpuni, 2004[1]
-Barbourula kalimantanensis Iskandar, 1978[2]
-Boiga hoeseli Ramadhan, Iskandar &amp; Subasri, 2010[3]
-Calamaria banggaiensis Koch, Arida, Mcguire, Iskandar &amp; Böhme, 2009[4]
-Cyrtodactylus batik Iskandar, Rachmansah &amp; Umilaela, 2011[5]
-Cyrtodactylus nuaulu Oliver, Edgar, Mumpuni, Iskandar &amp; Lilley, 2009 [6]
-Cyrtodactylus wallacei Hayden, et al., 2008 [7]
-Eutropis grandis Howard, Gillespie, Riyanto, Iskandar, 2007[8]
-Hemiphyllodactylus engganoensis Grismer, Riyanto, Iskandar &amp; McGuire, 2014[9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ansonia glandulosa Iskandar &amp; Mumpuni, 2004
+Barbourula kalimantanensis Iskandar, 1978
+Boiga hoeseli Ramadhan, Iskandar &amp; Subasri, 2010
+Calamaria banggaiensis Koch, Arida, Mcguire, Iskandar &amp; Böhme, 2009
+Cyrtodactylus batik Iskandar, Rachmansah &amp; Umilaela, 2011
+Cyrtodactylus nuaulu Oliver, Edgar, Mumpuni, Iskandar &amp; Lilley, 2009 
+Cyrtodactylus wallacei Hayden, et al., 2008 
+Eutropis grandis Howard, Gillespie, Riyanto, Iskandar, 2007
+Hemiphyllodactylus engganoensis Grismer, Riyanto, Iskandar &amp; McGuire, 2014
 Hylarana eschatia (Inger, Stuart, &amp; Iskandar, 2009)
 Hylarana megalonesa (Inger, Stuart &amp; Iskandar, 2009)
 Hylarana parvaccola (Inger, Stuart &amp; Iskandar, 2009)
 Hylarana rufipes (Inger, Stuart &amp; Iskandar, 2009)
-Ingerana rajae Iskandar, Bickford, Arifin, 2011[10]
+Ingerana rajae Iskandar, Bickford, Arifin, 2011
 Kalophrynus minusculus Iskandar, 1998
 Limnonectes kadarsani Iskandar, Boeadi &amp; Sancoyo, 1996
-Limnonectes larvaepartus Iskandar, Evans &amp; McGuire, 2014[11]
-Limnonectes sisikdagu McLeod, Horner, Husted, Barley &amp; Iskandar, 2011[12]
-Litoria megalops (Richards &amp; Iskandar, 2006)[13]
-Litoria purpureolata Oliver, Richards, Tjaturadi &amp; Iskandar, 2007[14]
+Limnonectes larvaepartus Iskandar, Evans &amp; McGuire, 2014
+Limnonectes sisikdagu McLeod, Horner, Husted, Barley &amp; Iskandar, 2011
+Litoria megalops (Richards &amp; Iskandar, 2006)
+Litoria purpureolata Oliver, Richards, Tjaturadi &amp; Iskandar, 2007
 Litoria wapogaensis Richards &amp; Iskandar, 2001
-Occidozyga tompotika Iskandar, Arifin &amp; Rachmansah, 2011[15]
+Occidozyga tompotika Iskandar, Arifin &amp; Rachmansah, 2011
 Oreophryne atrigularis Günther, Richards &amp; Iskandar, 2001
-Oreophryne furu Günther, Richards, Tjaturadi, and Iskandar, 2009[16]
+Oreophryne furu Günther, Richards, Tjaturadi, and Iskandar, 2009
 Oreophryne minuta Richards &amp; Iskandar, 2000
 Oreophryne wapoga Günther, Richards &amp; Iskandar, 2001
 Xenophrys parallela (Inger &amp; Iskandar, 2005)</t>
